--- a/data/miller_2020.xlsx
+++ b/data/miller_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/euansoutter/Desktop/python/geopy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C72AFB-6258-B14D-9D34-87E96392316F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81F635F-3CC1-D348-90DC-4E5417C800F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="500" windowWidth="18960" windowHeight="11320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="500" windowWidth="25100" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -426,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9594"/>
+  <dimension ref="A1:C9594"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4434" sqref="A2:C4434"/>
+    <sheetView tabSelected="1" topLeftCell="A5145" workbookViewId="0">
+      <selection activeCell="D5145" sqref="D1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -439,7 +439,7 @@
     <col min="3" max="3" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -449,10 +449,8 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>23004</v>
       </c>
@@ -463,7 +461,7 @@
         <v>-16.73</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>23011</v>
       </c>
@@ -474,7 +472,7 @@
         <v>-31.44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>23017</v>
       </c>
@@ -485,7 +483,7 @@
         <v>-44.94</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>23021</v>
       </c>
@@ -496,7 +494,7 @@
         <v>-32.6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>23024</v>
       </c>
@@ -507,7 +505,7 @@
         <v>-32.57</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>23030</v>
       </c>
@@ -518,7 +516,7 @@
         <v>-29.45</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>23034</v>
       </c>
@@ -529,7 +527,7 @@
         <v>26.58</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>23038</v>
       </c>
@@ -540,7 +538,7 @@
         <v>-27.54</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>23046</v>
       </c>
@@ -551,7 +549,7 @@
         <v>-42.25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>23048</v>
       </c>
@@ -562,7 +560,7 @@
         <v>-21.93</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>23058</v>
       </c>
@@ -573,7 +571,7 @@
         <v>-23.69</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>23062</v>
       </c>
@@ -584,7 +582,7 @@
         <v>-36.590000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>23063</v>
       </c>
@@ -595,7 +593,7 @@
         <v>-35.35</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>23066</v>
       </c>
@@ -606,7 +604,7 @@
         <v>-15.63</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>23070</v>
       </c>
@@ -57212,7 +57210,7 @@
         <v>18.41</v>
       </c>
     </row>
-    <row r="5162" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5162" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5163" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5164" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5165" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
